--- a/PHARM/MPD/all-profiles.xlsx
+++ b/PHARM/MPD/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17802" uniqueCount="1430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17804" uniqueCount="1431">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-comment</t>
+    <t>1.0.0-comment-2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-09T00:54:08+02:00</t>
+    <t>2025-05-27T16:37:26+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4339,6 +4339,9 @@
   </si>
   <si>
     <t>Medication - Strength substance</t>
+  </si>
+  <si>
+    <t>element:Medication.ingredient.strength</t>
   </si>
   <si>
     <t>element:Medication.ingredient.strength[x]</t>
@@ -4574,7 +4577,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B474"/>
+  <dimension ref="A1:B475"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -7565,24 +7568,24 @@
       </c>
     </row>
     <row r="382">
-      <c r="A382" t="s" s="1">
+      <c r="A382" t="s" s="2">
+        <v>1322</v>
+      </c>
+      <c r="B382" t="s" s="2">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B382" t="s" s="1">
+      <c r="B383" t="s" s="1">
         <v>1</v>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="B383" t="s" s="2">
-        <v>1397</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="s" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B384" t="s" s="2">
         <v>1398</v>
@@ -7590,23 +7593,23 @@
     </row>
     <row r="385">
       <c r="A385" t="s" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B385" t="s" s="2">
-        <v>7</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="s" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B386" t="s" s="2">
-        <v>1399</v>
+        <v>7</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="s" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B387" t="s" s="2">
         <v>1400</v>
@@ -7614,40 +7617,40 @@
     </row>
     <row r="388">
       <c r="A388" t="s" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B388" t="s" s="2">
-        <v>12</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="B389" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="B389" t="s" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="B390" t="s" s="2">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B390" s="2"/>
     </row>
     <row r="391">
       <c r="A391" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B391" t="s" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B392" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="393">
@@ -7655,114 +7658,114 @@
         <v>18</v>
       </c>
       <c r="B393" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="s" s="2">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B394" t="s" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="s" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B395" t="s" s="2">
-        <v>386</v>
+        <v>22</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="B396" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B396" t="s" s="2">
+        <v>386</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B397" t="s" s="2">
-        <v>27</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B397" s="2"/>
     </row>
     <row r="398">
       <c r="A398" t="s" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B398" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B399" t="s" s="2">
-        <v>1320</v>
+        <v>29</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B400" t="s" s="2">
-        <v>278</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B401" t="s" s="2">
-        <v>1321</v>
+        <v>278</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B402" t="s" s="2">
-        <v>36</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B403" t="s" s="2">
-        <v>232</v>
+        <v>36</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B404" t="s" s="2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s" s="2">
         <v>1322</v>
       </c>
-      <c r="B404" t="s" s="2">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="s" s="1">
+      <c r="B405" t="s" s="2">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B405" t="s" s="1">
+      <c r="B406" t="s" s="1">
         <v>1</v>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="B406" t="s" s="2">
-        <v>1401</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="s" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B407" t="s" s="2">
         <v>1402</v>
@@ -7770,23 +7773,23 @@
     </row>
     <row r="408">
       <c r="A408" t="s" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B408" t="s" s="2">
-        <v>7</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="s" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B409" t="s" s="2">
-        <v>1403</v>
+        <v>7</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="s" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B410" t="s" s="2">
         <v>1404</v>
@@ -7794,40 +7797,40 @@
     </row>
     <row r="411">
       <c r="A411" t="s" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B411" t="s" s="2">
-        <v>12</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="B412" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="B412" t="s" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="B413" t="s" s="2">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B413" s="2"/>
     </row>
     <row r="414">
       <c r="A414" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B414" t="s" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B415" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="416">
@@ -7835,114 +7838,114 @@
         <v>18</v>
       </c>
       <c r="B416" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="s" s="2">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B417" t="s" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="s" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B418" t="s" s="2">
-        <v>310</v>
+        <v>22</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="B419" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B419" t="s" s="2">
+        <v>310</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B420" t="s" s="2">
-        <v>27</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B420" s="2"/>
     </row>
     <row r="421">
       <c r="A421" t="s" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B421" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B422" t="s" s="2">
-        <v>1320</v>
+        <v>29</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B423" t="s" s="2">
-        <v>278</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B424" t="s" s="2">
-        <v>1321</v>
+        <v>278</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B425" t="s" s="2">
-        <v>36</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B426" t="s" s="2">
-        <v>232</v>
+        <v>36</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B427" t="s" s="2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="s" s="2">
         <v>1322</v>
       </c>
-      <c r="B427" t="s" s="2">
+      <c r="B428" t="s" s="2">
         <v>1323</v>
       </c>
     </row>
-    <row r="428">
-      <c r="A428" t="s" s="1">
+    <row r="429">
+      <c r="A429" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B428" t="s" s="1">
+      <c r="B429" t="s" s="1">
         <v>1</v>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="B429" t="s" s="2">
-        <v>1406</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="s" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B430" t="s" s="2">
         <v>1407</v>
@@ -7950,23 +7953,23 @@
     </row>
     <row r="431">
       <c r="A431" t="s" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B431" t="s" s="2">
-        <v>7</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="s" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B432" t="s" s="2">
-        <v>1408</v>
+        <v>7</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="s" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B433" t="s" s="2">
         <v>1409</v>
@@ -7974,40 +7977,40 @@
     </row>
     <row r="434">
       <c r="A434" t="s" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B434" t="s" s="2">
-        <v>12</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="B435" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="B435" t="s" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="B436" t="s" s="2">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B436" s="2"/>
     </row>
     <row r="437">
       <c r="A437" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B437" t="s" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B438" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="439">
@@ -8015,114 +8018,114 @@
         <v>18</v>
       </c>
       <c r="B439" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="s" s="2">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B440" t="s" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="s" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B441" t="s" s="2">
-        <v>1410</v>
+        <v>22</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="B442" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B442" t="s" s="2">
+        <v>1411</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B443" t="s" s="2">
-        <v>27</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B443" s="2"/>
     </row>
     <row r="444">
       <c r="A444" t="s" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B444" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B445" t="s" s="2">
-        <v>1320</v>
+        <v>29</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B446" t="s" s="2">
-        <v>278</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B447" t="s" s="2">
-        <v>1321</v>
+        <v>278</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B448" t="s" s="2">
-        <v>36</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B449" t="s" s="2">
-        <v>232</v>
+        <v>36</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B450" t="s" s="2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="s" s="2">
         <v>1322</v>
       </c>
-      <c r="B450" t="s" s="2">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" t="s" s="1">
+      <c r="B451" t="s" s="2">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B451" t="s" s="1">
+      <c r="B452" t="s" s="1">
         <v>1</v>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="B452" t="s" s="2">
-        <v>1412</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="s" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B453" t="s" s="2">
         <v>1413</v>
@@ -8130,23 +8133,23 @@
     </row>
     <row r="454">
       <c r="A454" t="s" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B454" t="s" s="2">
-        <v>7</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="s" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B455" t="s" s="2">
-        <v>1414</v>
+        <v>7</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="s" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B456" t="s" s="2">
         <v>1415</v>
@@ -8154,40 +8157,40 @@
     </row>
     <row r="457">
       <c r="A457" t="s" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B457" t="s" s="2">
-        <v>12</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="B458" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="B458" t="s" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="B459" t="s" s="2">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B459" s="2"/>
     </row>
     <row r="460">
       <c r="A460" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B460" t="s" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B461" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="462">
@@ -8195,93 +8198,93 @@
         <v>18</v>
       </c>
       <c r="B462" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="s" s="2">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B463" t="s" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="s" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B464" t="s" s="2">
-        <v>636</v>
+        <v>22</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="B465" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B465" t="s" s="2">
+        <v>636</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B466" t="s" s="2">
-        <v>27</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B466" s="2"/>
     </row>
     <row r="467">
       <c r="A467" t="s" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B467" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B468" t="s" s="2">
-        <v>1320</v>
+        <v>29</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B469" t="s" s="2">
-        <v>278</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B470" t="s" s="2">
-        <v>1321</v>
+        <v>278</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B471" t="s" s="2">
-        <v>36</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B472" t="s" s="2">
-        <v>232</v>
+        <v>36</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="s" s="2">
-        <v>1322</v>
+        <v>37</v>
       </c>
       <c r="B473" t="s" s="2">
-        <v>1416</v>
+        <v>232</v>
       </c>
     </row>
     <row r="474">
@@ -8290,6 +8293,14 @@
       </c>
       <c r="B474" t="s" s="2">
         <v>1417</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="s" s="2">
+        <v>1322</v>
+      </c>
+      <c r="B475" t="s" s="2">
+        <v>1418</v>
       </c>
     </row>
   </sheetData>
@@ -59245,7 +59256,7 @@
     </row>
     <row r="491">
       <c r="A491" t="s" s="2">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="B491" t="s" s="2">
         <v>278</v>
@@ -59277,7 +59288,7 @@
         <v>78</v>
       </c>
       <c r="M491" t="s" s="2">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="N491" t="s" s="2">
         <v>386</v>
@@ -59348,7 +59359,7 @@
     </row>
     <row r="492">
       <c r="A492" t="s" s="2">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="B492" t="s" s="2">
         <v>1324</v>
@@ -59451,7 +59462,7 @@
     </row>
     <row r="493">
       <c r="A493" t="s" s="2">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="B493" t="s" s="2">
         <v>1325</v>
@@ -59554,7 +59565,7 @@
     </row>
     <row r="494">
       <c r="A494" t="s" s="2">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="B494" t="s" s="2">
         <v>1338</v>
@@ -59600,7 +59611,7 @@
       </c>
       <c r="R494" s="2"/>
       <c r="S494" t="s" s="2">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="T494" t="s" s="2">
         <v>75</v>
@@ -59659,7 +59670,7 @@
     </row>
     <row r="495">
       <c r="A495" t="s" s="2">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="B495" t="s" s="2">
         <v>1344</v>
@@ -59762,7 +59773,7 @@
     </row>
     <row r="496">
       <c r="A496" t="s" s="2">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="B496" t="s" s="2">
         <v>278</v>
@@ -59794,7 +59805,7 @@
         <v>78</v>
       </c>
       <c r="M496" t="s" s="2">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="N496" t="s" s="2">
         <v>310</v>
@@ -59865,7 +59876,7 @@
     </row>
     <row r="497">
       <c r="A497" t="s" s="2">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="B497" t="s" s="2">
         <v>1324</v>
@@ -59968,7 +59979,7 @@
     </row>
     <row r="498">
       <c r="A498" t="s" s="2">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="B498" t="s" s="2">
         <v>1325</v>
@@ -60071,7 +60082,7 @@
     </row>
     <row r="499">
       <c r="A499" t="s" s="2">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="B499" t="s" s="2">
         <v>1338</v>
@@ -60117,7 +60128,7 @@
       </c>
       <c r="R499" s="2"/>
       <c r="S499" t="s" s="2">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="T499" t="s" s="2">
         <v>75</v>
@@ -60176,7 +60187,7 @@
     </row>
     <row r="500">
       <c r="A500" t="s" s="2">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="B500" t="s" s="2">
         <v>1344</v>
@@ -60242,7 +60253,7 @@
       </c>
       <c r="Z500" s="2"/>
       <c r="AA500" t="s" s="2">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="AB500" t="s" s="2">
         <v>75</v>
@@ -60277,7 +60288,7 @@
     </row>
     <row r="501">
       <c r="A501" t="s" s="2">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="B501" t="s" s="2">
         <v>278</v>
@@ -60309,10 +60320,10 @@
         <v>78</v>
       </c>
       <c r="M501" t="s" s="2">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="N501" t="s" s="2">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="O501" s="2"/>
       <c r="P501" s="2"/>
@@ -60380,7 +60391,7 @@
     </row>
     <row r="502">
       <c r="A502" t="s" s="2">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="B502" t="s" s="2">
         <v>1324</v>
@@ -60483,7 +60494,7 @@
     </row>
     <row r="503">
       <c r="A503" t="s" s="2">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="B503" t="s" s="2">
         <v>1325</v>
@@ -60586,7 +60597,7 @@
     </row>
     <row r="504">
       <c r="A504" t="s" s="2">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="B504" t="s" s="2">
         <v>1338</v>
@@ -60632,7 +60643,7 @@
       </c>
       <c r="R504" s="2"/>
       <c r="S504" t="s" s="2">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="T504" t="s" s="2">
         <v>75</v>
@@ -60691,7 +60702,7 @@
     </row>
     <row r="505">
       <c r="A505" t="s" s="2">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="B505" t="s" s="2">
         <v>1344</v>
@@ -60794,7 +60805,7 @@
     </row>
     <row r="506">
       <c r="A506" t="s" s="2">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="B506" t="s" s="2">
         <v>278</v>
@@ -60826,7 +60837,7 @@
         <v>78</v>
       </c>
       <c r="M506" t="s" s="2">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="N506" t="s" s="2">
         <v>636</v>
@@ -60897,7 +60908,7 @@
     </row>
     <row r="507">
       <c r="A507" t="s" s="2">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="B507" t="s" s="2">
         <v>1324</v>
@@ -61000,7 +61011,7 @@
     </row>
     <row r="508">
       <c r="A508" t="s" s="2">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="B508" t="s" s="2">
         <v>1325</v>
@@ -61103,16 +61114,16 @@
     </row>
     <row r="509">
       <c r="A509" t="s" s="2">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="B509" t="s" s="2">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="C509" t="s" s="2">
         <v>1325</v>
       </c>
       <c r="D509" t="s" s="2">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="E509" t="s" s="2">
         <v>75</v>
@@ -61208,10 +61219,10 @@
     </row>
     <row r="510">
       <c r="A510" t="s" s="2">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="B510" t="s" s="2">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="C510" t="s" s="2">
         <v>1330</v>
@@ -61311,10 +61322,10 @@
     </row>
     <row r="511">
       <c r="A511" t="s" s="2">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="B511" t="s" s="2">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="C511" t="s" s="2">
         <v>1332</v>
@@ -61414,10 +61425,10 @@
     </row>
     <row r="512">
       <c r="A512" t="s" s="2">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="B512" t="s" s="2">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="C512" t="s" s="2">
         <v>1334</v>
@@ -61460,7 +61471,7 @@
       </c>
       <c r="R512" s="2"/>
       <c r="S512" t="s" s="2">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="T512" t="s" s="2">
         <v>75</v>
@@ -61519,10 +61530,10 @@
     </row>
     <row r="513">
       <c r="A513" t="s" s="2">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="B513" t="s" s="2">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="C513" t="s" s="2">
         <v>1340</v>
@@ -61622,16 +61633,16 @@
     </row>
     <row r="514">
       <c r="A514" t="s" s="2">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="B514" t="s" s="2">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="C514" t="s" s="2">
         <v>1325</v>
       </c>
       <c r="D514" t="s" s="2">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="E514" t="s" s="2">
         <v>75</v>
@@ -61727,10 +61738,10 @@
     </row>
     <row r="515">
       <c r="A515" t="s" s="2">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="B515" t="s" s="2">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="C515" t="s" s="2">
         <v>1330</v>
@@ -61830,10 +61841,10 @@
     </row>
     <row r="516">
       <c r="A516" t="s" s="2">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="B516" t="s" s="2">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="C516" t="s" s="2">
         <v>1332</v>
@@ -61933,10 +61944,10 @@
     </row>
     <row r="517">
       <c r="A517" t="s" s="2">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="B517" t="s" s="2">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="C517" t="s" s="2">
         <v>1334</v>
@@ -61979,7 +61990,7 @@
       </c>
       <c r="R517" s="2"/>
       <c r="S517" t="s" s="2">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="T517" t="s" s="2">
         <v>75</v>
@@ -62038,10 +62049,10 @@
     </row>
     <row r="518">
       <c r="A518" t="s" s="2">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="B518" t="s" s="2">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="C518" t="s" s="2">
         <v>1340</v>
@@ -62141,7 +62152,7 @@
     </row>
     <row r="519">
       <c r="A519" t="s" s="2">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="B519" t="s" s="2">
         <v>1338</v>
@@ -62187,7 +62198,7 @@
       </c>
       <c r="R519" s="2"/>
       <c r="S519" t="s" s="2">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="T519" t="s" s="2">
         <v>75</v>
@@ -62246,7 +62257,7 @@
     </row>
     <row r="520">
       <c r="A520" t="s" s="2">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="B520" t="s" s="2">
         <v>1344</v>
